--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6A6D51-EC09-4DCE-BD6F-188746E2D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E009415-7A81-46DD-B13E-BAEE7C9AAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Row Labels</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Round Neck-Potter-Purple-16XL-Purple</t>
+  </si>
+  <si>
+    <t>Round Neck-Potter-Purple-17XL-Purple</t>
   </si>
 </sst>
 </file>
@@ -483,9 +486,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$32</c:f>
+              <c:f>pivot!$A$8:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
@@ -560,16 +563,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Round Neck-Potter-Purple-16XL-Purple</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Round Neck-Potter-Purple-17XL-Purple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$32</c:f>
+              <c:f>pivot!$B$8:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>641.9</c:v>
                 </c:pt>
@@ -644,6 +650,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,7 +1516,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.90379178241" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.923491666668" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
@@ -1516,7 +1525,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="27">
+      <sharedItems containsBlank="1" count="28">
         <s v="Shirts-Trevor-6XL-White"/>
         <s v="Tracks-Berlin-Navy-5XL-Navy Blue"/>
         <s v="Henley-Theron-4XL-Grey"/>
@@ -1542,6 +1551,7 @@
         <s v="Round Neck-Potter-Purple-14XL-Purple"/>
         <s v="Round Neck-Potter-Purple-15XL-Purple"/>
         <s v="Round Neck-Potter-Purple-16XL-Purple"/>
+        <s v="Round Neck-Potter-Purple-17XL-Purple"/>
         <m u="1"/>
         <s v="Round Neck-Potter-Purple-7XL-Purple" u="1"/>
       </sharedItems>
@@ -1579,7 +1589,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="927.62" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1000" count="20">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1599,6 +1609,7 @@
         <n v="451"/>
         <n v="675"/>
         <n v="900"/>
+        <n v="1000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="F6" numFmtId="0">
@@ -1646,7 +1657,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1989,6 +2000,20 @@
     <x v="22"/>
     <x v="0"/>
     <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="19"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2002,11 +2027,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A7:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="28">
+      <items count="29">
         <item x="2"/>
         <item x="10"/>
         <item x="13"/>
@@ -2015,7 +2040,7 @@
         <item x="14"/>
         <item x="16"/>
         <item x="15"/>
-        <item m="1" x="26"/>
+        <item m="1" x="27"/>
         <item x="17"/>
         <item x="7"/>
         <item x="8"/>
@@ -2026,7 +2051,7 @@
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
@@ -2034,6 +2059,7 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2078,7 +2104,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -2153,6 +2179,9 @@
     </i>
     <i>
       <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2551,9 +2580,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B32"/>
+  <dimension ref="A7:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2769,6 +2798,14 @@
       </c>
       <c r="B32" s="3">
         <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E009415-7A81-46DD-B13E-BAEE7C9AAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A284EA-7CEF-4A18-A5A8-A243DC638383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.923491666668" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.927134375001" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A284EA-7CEF-4A18-A5A8-A243DC638383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C2918-4D77-42EF-84AF-32941DF9DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Row Labels</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Round Neck-Potter-Purple-17XL-Purple</t>
+  </si>
+  <si>
+    <t>Round Neck-Potter-Purple-18XL-Purple</t>
+  </si>
+  <si>
+    <t>Round Neck-Potter-Purple-19XL-Purple</t>
   </si>
 </sst>
 </file>
@@ -486,9 +492,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$33</c:f>
+              <c:f>pivot!$A$8:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
@@ -566,16 +572,22 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Round Neck-Potter-Purple-17XL-Purple</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Round Neck-Potter-Purple-18XL-Purple</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Round Neck-Potter-Purple-19XL-Purple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$33</c:f>
+              <c:f>pivot!$B$8:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>641.9</c:v>
                 </c:pt>
@@ -653,6 +665,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1534,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.927134375001" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.932021990739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
@@ -1525,7 +1543,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="28">
+      <sharedItems containsBlank="1" count="30">
         <s v="Shirts-Trevor-6XL-White"/>
         <s v="Tracks-Berlin-Navy-5XL-Navy Blue"/>
         <s v="Henley-Theron-4XL-Grey"/>
@@ -1552,6 +1570,8 @@
         <s v="Round Neck-Potter-Purple-15XL-Purple"/>
         <s v="Round Neck-Potter-Purple-16XL-Purple"/>
         <s v="Round Neck-Potter-Purple-17XL-Purple"/>
+        <s v="Round Neck-Potter-Purple-18XL-Purple"/>
+        <s v="Round Neck-Potter-Purple-19XL-Purple"/>
         <m u="1"/>
         <s v="Round Neck-Potter-Purple-7XL-Purple" u="1"/>
       </sharedItems>
@@ -1589,7 +1609,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1000" count="20">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1200" count="22">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1610,6 +1630,8 @@
         <n v="675"/>
         <n v="900"/>
         <n v="1000"/>
+        <n v="1100"/>
+        <n v="1200"/>
       </sharedItems>
     </cacheField>
     <cacheField name="F6" numFmtId="0">
@@ -1657,7 +1679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2014,6 +2036,34 @@
     <x v="22"/>
     <x v="0"/>
     <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="21"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2027,11 +2077,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A7:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="29">
+      <items count="31">
         <item x="2"/>
         <item x="10"/>
         <item x="13"/>
@@ -2040,7 +2090,7 @@
         <item x="14"/>
         <item x="16"/>
         <item x="15"/>
-        <item m="1" x="27"/>
+        <item m="1" x="29"/>
         <item x="17"/>
         <item x="7"/>
         <item x="8"/>
@@ -2051,7 +2101,7 @@
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="26"/>
+        <item m="1" x="28"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
@@ -2060,6 +2110,8 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2104,7 +2156,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="28">
     <i>
       <x/>
     </i>
@@ -2182,6 +2234,12 @@
     </i>
     <i>
       <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2580,7 +2638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B33"/>
+  <dimension ref="A7:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2806,6 +2864,22 @@
       </c>
       <c r="B33" s="3">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C2918-4D77-42EF-84AF-32941DF9DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200E3A4-3F13-4D76-99CC-E663C2493920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.932021990739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.938783680554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200E3A4-3F13-4D76-99CC-E663C2493920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8167C661-3821-480B-8A6D-2EB709EC1270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.938783680554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.946102199072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8167C661-3821-480B-8A6D-2EB709EC1270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A53AAB-0EF7-4AC5-8ECD-DB59AEE0FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Row Labels</t>
   </si>
@@ -124,28 +124,7 @@
     <t>Round Neck-Potter-Purple-11XL-Purple</t>
   </si>
   <si>
-    <t>Round Neck-Potter-Purple-12XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-13XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-14XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-15XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-16XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-17XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-18XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-19XL-Purple</t>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -492,9 +471,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$35</c:f>
+              <c:f>pivot!$A$8:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
@@ -550,44 +529,23 @@
                   <c:v>Tracks-Leise-4XL-Teal</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Round Neck-Potter-Purple-10XL-Purple</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Round Neck-Potter-Purple-11XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round Neck-Potter-Purple-12XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round Neck-Potter-Purple-13XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round Neck-Potter-Purple-14XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Round Neck-Potter-Purple-15XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Round Neck-Potter-Purple-16XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Round Neck-Potter-Purple-17XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Round Neck-Potter-Purple-18XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Round Neck-Potter-Purple-19XL-Purple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$35</c:f>
+              <c:f>pivot!$B$8:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>641.9</c:v>
                 </c:pt>
@@ -642,35 +600,11 @@
                 <c:pt idx="17">
                   <c:v>818.1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,12 +1468,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.946102199072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.952835416669" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-06-01T00:00:00" maxDate="2022-06-02T00:00:00" count="1">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-06-01T00:00:00" maxDate="2022-06-02T00:00:00" count="2">
         <d v="2022-06-01T00:00:00"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Product Name" numFmtId="0">
@@ -1564,20 +1499,20 @@
         <s v="Round Neck-Potter-Purple-9XL-Purple"/>
         <s v="Round Neck-Potter-Purple-10XL-Purple"/>
         <s v="Round Neck-Potter-Purple-11XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-12XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-13XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-14XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-15XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-16XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-17XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-18XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-19XL-Purple"/>
-        <m u="1"/>
+        <m/>
+        <s v="Round Neck-Potter-Purple-12XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-13XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-14XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-15XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-16XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-17XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-18XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-19XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-7XL-Purple" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Product SKU Code" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800000002114" maxValue="3800000006932" count="23">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3800000002114" maxValue="3800000006932" count="24">
         <n v="3800000006634"/>
         <n v="3800000005840"/>
         <n v="3800000002114"/>
@@ -1597,19 +1532,21 @@
         <n v="3800000005700"/>
         <n v="3800000005701"/>
         <n v="3800000005702"/>
-        <n v="3800000005703"/>
-        <n v="3800000005704"/>
-        <n v="3800000005705"/>
-        <n v="3800000005722"/>
+        <m/>
+        <n v="3800000005703" u="1"/>
+        <n v="3800000005722" u="1"/>
+        <n v="3800000005705" u="1"/>
+        <n v="3800000005704" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
         <n v="1"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1200" count="22">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="927.62" count="18">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1627,11 +1564,7 @@
         <n v="450"/>
         <n v="1"/>
         <n v="451"/>
-        <n v="675"/>
-        <n v="900"/>
-        <n v="1000"/>
-        <n v="1100"/>
-        <n v="1200"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="F6" numFmtId="0">
@@ -1961,11 +1894,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <x v="19"/>
-    <x v="0"/>
-    <x v="16"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1975,11 +1908,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="21"/>
+    <x v="1"/>
     <x v="20"/>
-    <x v="0"/>
-    <x v="16"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1989,11 +1922,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="22"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="16"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2003,10 +1936,10 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="19"/>
+    <x v="1"/>
     <x v="17"/>
     <x v="0"/>
     <x v="0"/>
@@ -2017,11 +1950,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="24"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="18"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2031,11 +1964,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="25"/>
-    <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
     <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2045,11 +1978,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="26"/>
-    <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2059,11 +1992,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="27"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="21"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2077,7 +2010,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A7:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2101,22 +2034,22 @@
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="28"/>
+        <item x="20"/>
         <item x="18"/>
         <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="24">
+      <items count="25">
         <item x="2"/>
         <item x="15"/>
         <item x="6"/>
@@ -2126,11 +2059,11 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
+        <item m="1" x="20"/>
+        <item m="1" x="23"/>
+        <item m="1" x="22"/>
         <item x="14"/>
-        <item x="22"/>
+        <item m="1" x="21"/>
         <item x="1"/>
         <item x="13"/>
         <item x="10"/>
@@ -2140,6 +2073,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2156,7 +2090,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -2212,34 +2146,13 @@
       <x v="18"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i>
       <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2305,7 +2218,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="134459092">
-      <items count="23">
+      <items count="24">
         <i x="2" s="1"/>
         <i x="15" s="1"/>
         <i x="6" s="1"/>
@@ -2315,11 +2228,7 @@
         <i x="16" s="1"/>
         <i x="17" s="1"/>
         <i x="18" s="1"/>
-        <i x="19" s="1"/>
-        <i x="20" s="1"/>
-        <i x="21" s="1"/>
         <i x="14" s="1"/>
-        <i x="22" s="1"/>
         <i x="1" s="1"/>
         <i x="13" s="1"/>
         <i x="10" s="1"/>
@@ -2329,6 +2238,11 @@
         <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2638,7 +2552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B35"/>
+  <dimension ref="A7:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2804,82 +2718,24 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3">
         <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A53AAB-0EF7-4AC5-8ECD-DB59AEE0FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D4070-F201-49C7-B263-47AC8C7A7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.952835416669" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.956894675925" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D4070-F201-49C7-B263-47AC8C7A7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6154F0A-AB6C-4A92-A37A-FE11B27924BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.956894675925" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.96061076389" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6154F0A-AB6C-4A92-A37A-FE11B27924BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C13FB-B93A-4559-9978-43BAF3D70085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Row Labels</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Round Neck-Potter-Purple-9XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-10XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-11XL-Purple</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -471,9 +465,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$28</c:f>
+              <c:f>pivot!$A$8:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
@@ -530,22 +524,16 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>(blank)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round Neck-Potter-Purple-10XL-Purple</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round Neck-Potter-Purple-11XL-Purple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$28</c:f>
+              <c:f>pivot!$B$8:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>641.9</c:v>
                 </c:pt>
@@ -599,12 +587,6 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>818.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,7 +1450,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.96061076389" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.967486111113" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
@@ -1497,9 +1479,9 @@
         <s v="Round Neck-Potter-Purple-2XL-Purple"/>
         <s v="Round Neck-Geoff-3XL-Navy"/>
         <s v="Round Neck-Potter-Purple-9XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-10XL-Purple"/>
-        <s v="Round Neck-Potter-Purple-11XL-Purple"/>
         <m/>
+        <s v="Round Neck-Potter-Purple-10XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-11XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-12XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-13XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-14XL-Purple" u="1"/>
@@ -1530,11 +1512,11 @@
         <n v="3800000005719"/>
         <n v="3800000003554"/>
         <n v="3800000005700"/>
-        <n v="3800000005701"/>
-        <n v="3800000005702"/>
         <m/>
         <n v="3800000005703" u="1"/>
         <n v="3800000005722" u="1"/>
+        <n v="3800000005702" u="1"/>
+        <n v="3800000005701" u="1"/>
         <n v="3800000005705" u="1"/>
         <n v="3800000005704" u="1"/>
       </sharedItems>
@@ -1546,7 +1528,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="927.62" count="18">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="450" maxValue="927.62" count="16">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1562,8 +1544,6 @@
         <n v="456.19"/>
         <n v="656.2"/>
         <n v="450"/>
-        <n v="1"/>
-        <n v="451"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1866,25 +1846,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <x v="17"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="16"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1895,10 +1861,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1909,10 +1875,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1923,10 +1889,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1937,10 +1903,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1951,10 +1917,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1965,10 +1931,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1979,10 +1945,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1993,10 +1959,24 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="20"/>
-    <x v="19"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
     <x v="17"/>
+    <x v="1"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2010,7 +1990,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A7:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2034,9 +2014,9 @@
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="20"/>
         <item x="18"/>
-        <item x="19"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
         <item m="1" x="21"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
@@ -2057,13 +2037,13 @@
         <item x="3"/>
         <item x="4"/>
         <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
+        <item m="1" x="21"/>
         <item m="1" x="20"/>
+        <item m="1" x="18"/>
         <item m="1" x="23"/>
         <item m="1" x="22"/>
         <item x="14"/>
-        <item m="1" x="21"/>
+        <item m="1" x="19"/>
         <item x="1"/>
         <item x="13"/>
         <item x="10"/>
@@ -2073,7 +2053,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="19"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2090,7 +2070,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -2147,12 +2127,6 @@
     </i>
     <i>
       <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2226,8 +2200,6 @@
         <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="16" s="1"/>
-        <i x="17" s="1"/>
-        <i x="18" s="1"/>
         <i x="14" s="1"/>
         <i x="1" s="1"/>
         <i x="13" s="1"/>
@@ -2238,11 +2210,13 @@
         <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
+        <i x="21" s="1" nd="1"/>
         <i x="20" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
         <i x="23" s="1" nd="1"/>
         <i x="22" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
         <i x="19" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2552,7 +2526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B28"/>
+  <dimension ref="A7:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2560,7 +2534,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2718,25 +2692,9 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3">
-        <v>451</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C13FB-B93A-4559-9978-43BAF3D70085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199805C7-CCF6-4F41-961D-12E8A5CD2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Row Labels</t>
   </si>
@@ -101,21 +101,6 @@
   </si>
   <si>
     <t>Polo-Fralb-Green-6XL-Green</t>
-  </si>
-  <si>
-    <t>Polo-Fralb-Green-3XL-Green</t>
-  </si>
-  <si>
-    <t>Polo-Troy-Royal-5XL-Royal Blue</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-2XL-Purple</t>
-  </si>
-  <si>
-    <t>Round Neck-Geoff-3XL-Navy</t>
-  </si>
-  <si>
-    <t>Round Neck-Potter-Purple-9XL-Purple</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -465,128 +450,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$8:$A$26</c:f>
+              <c:f>pivot!$A$8:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>Henley-Theron-4XL-Grey</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Polo-Fralb-Green-2XL-Green</c:v>
+                  <c:v>Tracks-Leise-4XL-Teal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Polo-Fralb-Green-3XL-Green</c:v>
+                  <c:v>Tracks-Hayward-5XL-Teal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Polo-Fralb-Green-6XL-Green</c:v>
+                  <c:v>Tracks-Berlin-Navy-5XL-Navy Blue</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Polo-Fralb-Green-XL-Green</c:v>
+                  <c:v>Shorts-Robey-8XL-Maroon</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Polo-Troy-Royal-5XL-Royal Blue</c:v>
+                  <c:v>Shorts-Gladstone-7XL-Maroon</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round Neck-Geoff-3XL-Navy</c:v>
+                  <c:v>Shirts-VernonF-5XL-Black</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round Neck-Potter-Purple-2XL-Purple</c:v>
+                  <c:v>Shirts-Trevor-6XL-White</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round Neck-Potter-Purple-9XL-Purple</c:v>
+                  <c:v>Shirts-Ecru-5XL-Beige</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Shirts-Ecru-4XL-Beige</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Shirts-Ecru-5XL-Beige</c:v>
+                  <c:v>Polo-Fralb-Green-XL-Green</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Shirts-Trevor-6XL-White</c:v>
+                  <c:v>Polo-Fralb-Green-6XL-Green</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Shirts-VernonF-5XL-Black</c:v>
+                  <c:v>Polo-Fralb-Green-2XL-Green</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Shorts-Gladstone-7XL-Maroon</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Shorts-Robey-8XL-Maroon</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Tracks-Berlin-Navy-5XL-Navy Blue</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Tracks-Hayward-5XL-Teal</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Tracks-Leise-4XL-Teal</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(blank)</c:v>
+                  <c:v>Henley-Theron-4XL-Grey</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$8:$B$26</c:f>
+              <c:f>pivot!$B$8:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>818.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>795.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>753.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>654.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>641.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>665.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>665.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>632.38</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>656.2</c:v>
+                  <c:v>927.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>456.19</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>890.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>890.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>890.48</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>880</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>927.62</c:v>
+                  <c:v>665.71</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>641.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>654.29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>753.33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>795.24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>818.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1405,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.967486111113" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.974553587963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
@@ -1474,12 +1429,9 @@
         <s v="Polo-Fralb-Green-2XL-Green"/>
         <s v="Polo-Fralb-Green-XL-Green"/>
         <s v="Polo-Fralb-Green-6XL-Green"/>
-        <s v="Polo-Fralb-Green-3XL-Green"/>
-        <s v="Polo-Troy-Royal-5XL-Royal Blue"/>
-        <s v="Round Neck-Potter-Purple-2XL-Purple"/>
-        <s v="Round Neck-Geoff-3XL-Navy"/>
-        <s v="Round Neck-Potter-Purple-9XL-Purple"/>
         <m/>
+        <s v="Polo-Fralb-Green-3XL-Green" u="1"/>
+        <s v="Round Neck-Geoff-3XL-Navy" u="1"/>
         <s v="Round Neck-Potter-Purple-10XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-11XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-12XL-Purple" u="1"/>
@@ -1490,7 +1442,10 @@
         <s v="Round Neck-Potter-Purple-17XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-18XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-19XL-Purple" u="1"/>
+        <s v="Polo-Troy-Royal-5XL-Royal Blue" u="1"/>
+        <s v="Round Neck-Potter-Purple-2XL-Purple" u="1"/>
         <s v="Round Neck-Potter-Purple-7XL-Purple" u="1"/>
+        <s v="Round Neck-Potter-Purple-9XL-Purple" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Product SKU Code" numFmtId="0">
@@ -1508,17 +1463,17 @@
         <n v="3800000006381"/>
         <n v="3800000006385"/>
         <n v="3800000006389"/>
-        <n v="3800000006213"/>
-        <n v="3800000005719"/>
-        <n v="3800000003554"/>
-        <n v="3800000005700"/>
         <m/>
+        <n v="3800000006213" u="1"/>
         <n v="3800000005703" u="1"/>
         <n v="3800000005722" u="1"/>
         <n v="3800000005702" u="1"/>
         <n v="3800000005701" u="1"/>
+        <n v="3800000005700" u="1"/>
+        <n v="3800000005719" u="1"/>
         <n v="3800000005705" u="1"/>
         <n v="3800000005704" u="1"/>
+        <n v="3800000003554" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -1528,7 +1483,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="450" maxValue="927.62" count="16">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="641.9" maxValue="927.62" count="12">
         <n v="880"/>
         <n v="753.33"/>
         <n v="641.9"/>
@@ -1540,10 +1495,6 @@
         <n v="665.71"/>
         <n v="650"/>
         <n v="652"/>
-        <n v="632.38"/>
-        <n v="456.19"/>
-        <n v="656.2"/>
-        <n v="450"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1776,67 +1727,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <x v="13"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="14"/>
     <x v="13"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1847,10 +1742,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1861,10 +1756,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1875,10 +1770,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1889,10 +1784,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1903,10 +1798,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1917,10 +1812,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1931,10 +1826,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1945,10 +1840,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1959,10 +1854,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1973,10 +1868,66 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="18"/>
-    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1990,62 +1941,62 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB7F4B-0656-4554-B2DB-822C1DA70191}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A7:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A7:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="31">
+        <item x="13"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item m="1" x="29"/>
+        <item m="1" x="28"/>
+        <item m="1" x="27"/>
+        <item m="1" x="25"/>
+        <item m="1" x="24"/>
+        <item m="1" x="23"/>
+        <item m="1" x="22"/>
+        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item m="1" x="19"/>
+        <item m="1" x="18"/>
+        <item m="1" x="17"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="26"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item m="1" x="14"/>
+        <item x="10"/>
         <item x="2"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item m="1" x="29"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="25">
         <item x="2"/>
-        <item x="15"/>
+        <item m="1" x="23"/>
         <item x="6"/>
         <item x="5"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="16"/>
+        <item m="1" x="19"/>
+        <item m="1" x="18"/>
+        <item m="1" x="17"/>
+        <item m="1" x="15"/>
+        <item m="1" x="22"/>
         <item m="1" x="21"/>
         <item m="1" x="20"/>
-        <item m="1" x="18"/>
-        <item m="1" x="23"/>
-        <item m="1" x="22"/>
-        <item x="14"/>
-        <item m="1" x="19"/>
+        <item m="1" x="16"/>
         <item x="1"/>
-        <item x="13"/>
+        <item m="1" x="14"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -2053,7 +2004,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="17"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2070,7 +2021,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -2096,37 +2047,22 @@
       <x v="7"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
+      <x v="29"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2194,15 +2130,11 @@
     <tabular pivotCacheId="134459092">
       <items count="24">
         <i x="2" s="1"/>
-        <i x="15" s="1"/>
         <i x="6" s="1"/>
         <i x="5" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
-        <i x="16" s="1"/>
-        <i x="14" s="1"/>
         <i x="1" s="1"/>
-        <i x="13" s="1"/>
         <i x="10" s="1"/>
         <i x="11" s="1"/>
         <i x="12" s="1"/>
@@ -2210,13 +2142,17 @@
         <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
         <i x="21" s="1" nd="1"/>
         <i x="20" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2526,15 +2462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DD1B-F587-4377-A287-B1789048C5D1}">
-  <dimension ref="A7:B26"/>
+  <dimension ref="A7:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2548,74 +2484,72 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>818.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>795.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>753.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>654.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
         <v>641.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>665.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
-        <v>665.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>632.38</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>656.2</v>
+        <v>927.62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>456.19</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>450</v>
+        <v>890.48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,73 +2562,35 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>890.48</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>880</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
-        <v>927.62</v>
+        <v>665.71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3">
         <v>641.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>654.29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3">
-        <v>753.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3">
-        <v>795.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3">
-        <v>818.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dash .xlsx
+++ b/dash .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Desktop\donovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199805C7-CCF6-4F41-961D-12E8A5CD2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C13D2-B4CC-4424-A9DB-2F354D34E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A80CDA11-29D0-478C-8021-9C5713C4F611}"/>
   </bookViews>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.974553587963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="91921" refreshedDate="44776.979123611112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{37596991-93F5-4F6D-BFDF-22EA18B60EDD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="Date" numFmtId="0">
